--- a/cat.xlsx
+++ b/cat.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6704" uniqueCount="2446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6749" uniqueCount="2477">
   <si>
     <t>排序</t>
   </si>
@@ -7467,6 +7467,114 @@
   </si>
   <si>
     <t>風9地1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://files.originmood.com/pic/7fd53469e896a57ba33b04e23ccfc033/picture/dbb36c13c1a0061abf88c933a66606a6.gif</t>
+  </si>
+  <si>
+    <t>https://files.originmood.com/pic/7fd53469e896a57ba33b04e23ccfc033/picture/226799d0c3ea5d4c201f766d1b17131c.gif</t>
+  </si>
+  <si>
+    <t>https://files.originmood.com/pic/7fd53469e896a57ba33b04e23ccfc033/picture/4b28798fc065f85eb9caead6eb45b33a.gif</t>
+  </si>
+  <si>
+    <t>https://files.originmood.com/pic/7fd53469e896a57ba33b04e23ccfc033/picture/db844b78397aee85984879846cde4798.gif</t>
+  </si>
+  <si>
+    <t>https://files.originmood.com/pic/7fd53469e896a57ba33b04e23ccfc033/picture/8db9293afe7f28f70b7156fb38772ba4.gif</t>
+  </si>
+  <si>
+    <t>焦糖丸子炸彈</t>
+  </si>
+  <si>
+    <t>星輝仙靈</t>
+  </si>
+  <si>
+    <t>焚炎仙靈</t>
+  </si>
+  <si>
+    <t>潮汐仙靈</t>
+  </si>
+  <si>
+    <t>山隱仙靈</t>
+  </si>
+  <si>
+    <t>風8地2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊 防禦 復活魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水5火5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://files.originmood.com/pic/7fd53469e896a57ba33b04e23ccfc033/picture/f047596fdbb4e26753c630baf8d69663.gif</t>
+  </si>
+  <si>
+    <t>https://files.originmood.com/pic/7fd53469e896a57ba33b04e23ccfc033/picture/5d20d2a9a1064a7635b6d530ebf53e0c.gif</t>
+  </si>
+  <si>
+    <t>https://files.originmood.com/pic/7fd53469e896a57ba33b04e23ccfc033/picture/5ca1042cc5699bf26a4b745ee7803e16.gif</t>
+  </si>
+  <si>
+    <t>https://files.originmood.com/pic/7fd53469e896a57ba33b04e23ccfc033/picture/13cde8a58f475d2d99ae992595802179.gif</t>
+  </si>
+  <si>
+    <t>蝕月炎獸</t>
+  </si>
+  <si>
+    <t>暴雪魔獸</t>
+  </si>
+  <si>
+    <t>雪獅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月獅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金屬系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水5火5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊 防禦 氣功蛋1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊 防禦 強力昏睡魔法Lv3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7474,7 +7582,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7528,6 +7636,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體-ExtB"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7554,7 +7669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7574,6 +7689,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7861,11 +7979,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y516"/>
+  <dimension ref="A1:Y518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I101" sqref="I101"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y521" sqref="Y521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -41240,41 +41358,373 @@
       <c r="A509">
         <v>513</v>
       </c>
-    </row>
-    <row r="510" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B509" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C509" s="7" t="s">
+        <v>2455</v>
+      </c>
+      <c r="D509" s="5" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E509" s="5">
+        <v>125</v>
+      </c>
+      <c r="F509" s="5">
+        <v>21</v>
+      </c>
+      <c r="G509" s="5">
+        <v>10</v>
+      </c>
+      <c r="H509" s="5">
+        <v>13</v>
+      </c>
+      <c r="I509" s="5">
+        <v>37</v>
+      </c>
+      <c r="J509" s="5">
+        <v>44</v>
+      </c>
+      <c r="K509" s="5">
+        <v>8</v>
+      </c>
+      <c r="X509" t="s">
+        <v>2461</v>
+      </c>
+      <c r="Y509" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="510" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>514</v>
       </c>
-    </row>
-    <row r="511" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B510" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C510" s="7" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D510" s="5" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E510" s="5">
+        <v>125</v>
+      </c>
+      <c r="F510" s="5">
+        <v>21</v>
+      </c>
+      <c r="G510" s="5">
+        <v>10</v>
+      </c>
+      <c r="H510" s="5">
+        <v>37</v>
+      </c>
+      <c r="I510" s="5">
+        <v>13</v>
+      </c>
+      <c r="J510" s="5">
+        <v>44</v>
+      </c>
+      <c r="K510" s="5">
+        <v>8</v>
+      </c>
+      <c r="X510" t="s">
+        <v>2460</v>
+      </c>
+      <c r="Y510" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="511" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>515</v>
       </c>
-    </row>
-    <row r="512" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B511" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C511" s="7" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D511" s="5" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E511" s="5">
+        <v>125</v>
+      </c>
+      <c r="F511" s="5">
+        <v>37</v>
+      </c>
+      <c r="G511" s="5">
+        <v>10</v>
+      </c>
+      <c r="H511" s="5">
+        <v>13</v>
+      </c>
+      <c r="I511" s="5">
+        <v>21</v>
+      </c>
+      <c r="J511" s="5">
+        <v>44</v>
+      </c>
+      <c r="K511" s="5">
+        <v>8</v>
+      </c>
+      <c r="X511" t="s">
+        <v>2458</v>
+      </c>
+      <c r="Y511" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="512" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>516</v>
       </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B512" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C512" s="7" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D512" s="5" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E512" s="5">
+        <v>125</v>
+      </c>
+      <c r="F512" s="5">
+        <v>50</v>
+      </c>
+      <c r="G512" s="5">
+        <v>6</v>
+      </c>
+      <c r="H512" s="5">
+        <v>15</v>
+      </c>
+      <c r="I512" s="5">
+        <v>6</v>
+      </c>
+      <c r="J512" s="5">
+        <v>48</v>
+      </c>
+      <c r="K512" s="5">
+        <v>9</v>
+      </c>
+      <c r="X512" t="s">
+        <v>2459</v>
+      </c>
+      <c r="Y512" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="513" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>517</v>
       </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B513" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C513" s="7" t="s">
+        <v>2451</v>
+      </c>
+      <c r="D513" s="5" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E513">
+        <v>125</v>
+      </c>
+      <c r="F513">
+        <v>12</v>
+      </c>
+      <c r="G513">
+        <v>21</v>
+      </c>
+      <c r="H513">
+        <v>13</v>
+      </c>
+      <c r="I513">
+        <v>32</v>
+      </c>
+      <c r="J513">
+        <v>47</v>
+      </c>
+      <c r="K513">
+        <v>8</v>
+      </c>
+      <c r="X513" t="s">
+        <v>2456</v>
+      </c>
+      <c r="Y513" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="514" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>518</v>
       </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B514" t="s">
+        <v>2462</v>
+      </c>
+      <c r="C514" s="7" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D514" s="5" t="s">
+        <v>2470</v>
+      </c>
+      <c r="E514">
+        <v>123</v>
+      </c>
+      <c r="F514">
+        <v>30</v>
+      </c>
+      <c r="G514">
+        <v>32</v>
+      </c>
+      <c r="H514">
+        <v>13</v>
+      </c>
+      <c r="I514">
+        <v>26</v>
+      </c>
+      <c r="J514">
+        <v>22</v>
+      </c>
+      <c r="K514">
+        <v>8</v>
+      </c>
+      <c r="X514" t="s">
+        <v>2471</v>
+      </c>
+      <c r="Y514" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="515" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>519</v>
       </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B515" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C515" s="7" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D515" s="5" t="s">
+        <v>2470</v>
+      </c>
+      <c r="E515">
+        <v>123</v>
+      </c>
+      <c r="F515">
+        <v>36</v>
+      </c>
+      <c r="G515">
+        <v>32</v>
+      </c>
+      <c r="H515">
+        <v>18</v>
+      </c>
+      <c r="I515">
+        <v>24</v>
+      </c>
+      <c r="J515">
+        <v>13</v>
+      </c>
+      <c r="K515">
+        <v>8</v>
+      </c>
+      <c r="X515" t="s">
+        <v>2472</v>
+      </c>
+      <c r="Y515" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="516" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>520</v>
       </c>
+      <c r="B516" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C516" s="7" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D516" s="5" t="s">
+        <v>2470</v>
+      </c>
+      <c r="E516">
+        <v>125</v>
+      </c>
+      <c r="F516">
+        <v>43</v>
+      </c>
+      <c r="G516">
+        <v>6</v>
+      </c>
+      <c r="H516">
+        <v>16</v>
+      </c>
+      <c r="I516">
+        <v>18</v>
+      </c>
+      <c r="J516">
+        <v>42</v>
+      </c>
+      <c r="K516">
+        <v>8</v>
+      </c>
+      <c r="X516" t="s">
+        <v>2473</v>
+      </c>
+      <c r="Y516" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="517" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>521</v>
+      </c>
+      <c r="B517" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C517" s="7" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D517" s="5" t="s">
+        <v>2470</v>
+      </c>
+      <c r="E517">
+        <v>125</v>
+      </c>
+      <c r="F517">
+        <v>50</v>
+      </c>
+      <c r="G517">
+        <v>40</v>
+      </c>
+      <c r="H517">
+        <v>12</v>
+      </c>
+      <c r="I517">
+        <v>17</v>
+      </c>
+      <c r="J517">
+        <v>6</v>
+      </c>
+      <c r="K517">
+        <v>8</v>
+      </c>
+      <c r="X517" t="s">
+        <v>2474</v>
+      </c>
+      <c r="Y517" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="518" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C518" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -41282,5 +41732,6 @@
     <hyperlink ref="B382" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>